--- a/最终数据.xlsx
+++ b/最终数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tao\Desktop\sc_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFE36D2-1C9A-4F59-BA07-4B1CD3F7F71F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD9959B-28C0-4FA7-9ACB-1450A6C24582}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="1020">
   <si>
     <t>问题</t>
   </si>
@@ -790,6 +790,9 @@
     <t>D.雇佣</t>
   </si>
   <si>
+    <t>A.购买,B.租赁,C.委托,D.雇佣</t>
+  </si>
+  <si>
     <t>规范政府采购行为的目的是为了（_）。</t>
   </si>
   <si>
@@ -805,6 +808,9 @@
     <t>D. 促进廉政建设</t>
   </si>
   <si>
+    <t>A.维护国家利益,B. 维护社会公共利益,C.保护政府采购当事人的合法权益,D. 促进廉政建设</t>
+  </si>
+  <si>
     <t>政府采购的实施主体包括（_）。</t>
   </si>
   <si>
@@ -820,6 +826,9 @@
     <t>D.团体组织</t>
   </si>
   <si>
+    <t>A.各级国家机关,B.事业单位,D.团体组织</t>
+  </si>
+  <si>
     <t>《中华人民共和国政府采购法》所称货物，是指各种形态和种类的物品，包括（_）</t>
   </si>
   <si>
@@ -835,6 +844,9 @@
     <t>D.建筑物</t>
   </si>
   <si>
+    <t>B.原材料、燃料,C.设备、产品</t>
+  </si>
+  <si>
     <t>政府采购应当遵循（_）原则。</t>
   </si>
   <si>
@@ -850,6 +862,9 @@
     <t>D.公开透明</t>
   </si>
   <si>
+    <t>A.公正,B.诚实信用,C.公平竞争,D.公开透明</t>
+  </si>
+  <si>
     <t>属于地方预算的政府采购项目，其集中采购目录由（_）确定并公布。</t>
   </si>
   <si>
@@ -865,6 +880,9 @@
     <t>D. 省、自治区、直辖市人民政府授权的机构</t>
   </si>
   <si>
+    <t>A.省政府,B. 自治区人民政府,C. 直辖市人民政府,D. 省、自治区、直辖市人民政府授权的机构</t>
+  </si>
+  <si>
     <t>政府采购应当有助于实现国家和社会发展政策目标，包括（_）等。</t>
   </si>
   <si>
@@ -880,6 +898,9 @@
     <t>D.促进中小企业发展</t>
   </si>
   <si>
+    <t>A.保护环境,B.扶持不发达地区,C.扶持少数民族地区,D.促进中小企业发展</t>
+  </si>
+  <si>
     <t>除以下（_）情形外，政府采购应当采购本国货物、工程和服务。</t>
   </si>
   <si>
@@ -895,6 +916,9 @@
     <t>D.需要采购的货物、工程和服务在中国境内无法以合理的商业条件获取的</t>
   </si>
   <si>
+    <t>A.需要采购的货物、工程和服务在中国境内无法获取的,B.为在中国境外使用而进行采购的,D.需要采购的货物、工程和服务在中国境内无法以合理的商业条件获取的</t>
+  </si>
+  <si>
     <t>政府采购活动中， （_）与供应商有利害关系的，必须回避。</t>
   </si>
   <si>
@@ -910,6 +934,9 @@
     <t>D.采购监督管理部门负责人</t>
   </si>
   <si>
+    <t>A.招标采购中评标委员会的组成人员,B.竞争性谈判采购中谈判小组的组成人员,C.询价采购中询价小组的组成人员</t>
+  </si>
+  <si>
     <t>集中采购机构进行政府采购活动应当符合（_）的要求。</t>
   </si>
   <si>
@@ -925,6 +952,9 @@
     <t>D.服务良好</t>
   </si>
   <si>
+    <t>A.采购价格低于市场平均价格,B.采购效率更高,C.采购质量优良,D.服务良好</t>
+  </si>
+  <si>
     <t>采购人采购未纳入集中采购目录的政府采购项目（_）。</t>
   </si>
   <si>
@@ -940,6 +970,9 @@
     <t>D.只能自行采购</t>
   </si>
   <si>
+    <t>A.可以自行采购,B.可以委托集中采购机构在委托的范围内代理采购</t>
+  </si>
+  <si>
     <t>以下说法正确的有（_）。</t>
   </si>
   <si>
@@ -955,6 +988,9 @@
     <t>D.属于本单位有特殊要求的项目，经国务院批准，可以自行采购</t>
   </si>
   <si>
+    <t>A.纳入集中采购目录属于通用的政府采购项目的，应当委托集中采购机构代理采购,B.属于本部门、本系统有特殊要求的项目，应当实行部门集中采购,C.属于本单位有特殊要求的项目，经省级以上人民政府批准，可以自行采购</t>
+  </si>
+  <si>
     <t>政府采购方式有（_）。</t>
   </si>
   <si>
@@ -970,6 +1006,9 @@
     <t>D. 单一来源采购</t>
   </si>
   <si>
+    <t>A. 公开招标,B. 邀请招标,C. 竞争性谈判,D. 单一来源采购</t>
+  </si>
+  <si>
     <t>供应商参加政府采购活动应当具备（_）条件。</t>
   </si>
   <si>
@@ -985,9 +1024,15 @@
     <t>D.在经营活动中从未有过违法记录</t>
   </si>
   <si>
+    <t>A.具有独立承担民事责任的能力,B.具有良好的商业信誉和健全的财务会计制度,C.有依法缴纳税收和社会保障资金的良好记录</t>
+  </si>
+  <si>
     <t>D.具有履行合同所必需的设备和专业技术能力</t>
   </si>
   <si>
+    <t>A.具有独立承担民事责任的能力,B.具有良好的商业信誉和健全的财务会计制度,C.有依法缴纳税收和社会保障资金的良好记录,D.具有履行合同所必需的设备和专业技术能力</t>
+  </si>
+  <si>
     <t>以下（_）可以依照政府采购法采用邀请招标方式采购。</t>
   </si>
   <si>
@@ -1003,6 +1048,9 @@
     <t>D.大多数供应商已组成联合体参加政府采购的项目</t>
   </si>
   <si>
+    <t>A.货物具有特殊性，只能从有限范围的供应商处采购的,B.采用公开招标方式的费用占政府采购项目总价值比例过大的</t>
+  </si>
+  <si>
     <t>以下（_）货物或者服务，可以依照政府采购法采用竞争性谈判方式采购。</t>
   </si>
   <si>
@@ -1018,6 +1066,9 @@
     <t>D.不能事先计算出价格总额的</t>
   </si>
   <si>
+    <t>A.招标后没有供应商投标或者没有合格标的或者重新招标未能成立的,B.技术复杂或者性质特殊，不能确定详细规格或者具体要求的,C.采用招标所需时间不能满足用户紧急需要的,D.不能事先计算出价格总额的</t>
+  </si>
+  <si>
     <t>以下（_）可以依照政府采购法采用单一来源方式采购。</t>
   </si>
   <si>
@@ -1030,6 +1081,9 @@
     <t>D.必须保证原有采购项目一致性或者服务配套要求，需要继续从原供应商处采购，且添购资金总金额不超过原合同采购金额20%的</t>
   </si>
   <si>
+    <t>A.只能从唯一供应商处采购的,C.发生了不可预见的紧急情况不能从其他供应商处采购的</t>
+  </si>
+  <si>
     <t>在招标采购中，出现以下（_）情形，应予废标。</t>
   </si>
   <si>
@@ -1042,6 +1096,9 @@
     <t>C.三分之二的投标人报价均超过采购预算，采购人不能支付的</t>
   </si>
   <si>
+    <t>A.正确招标文件作实质响应的供应商只有两家的,B.采购人向某供应商泄露标底的,D.因重大变故，采购任务取消的</t>
+  </si>
+  <si>
     <t>竞争性谈判文件应当明确（_）等事项。</t>
   </si>
   <si>
@@ -1057,6 +1114,9 @@
     <t>D.评定成交的标准</t>
   </si>
   <si>
+    <t>A.谈判程序,B.谈判内容,C.合同草案的条款,D.评定成交的标准</t>
+  </si>
+  <si>
     <t>政府采购监督管理部门对政府采购活动及集中采购机构监督检查的主要内容是（_）。</t>
   </si>
   <si>
@@ -1072,6 +1132,9 @@
     <t>D. 采购程序执行情况</t>
   </si>
   <si>
+    <t>A.有关政府采购法律、行政法规和规章的执行情况,B.采购范围、采购方式执行情况,C.政府采购人员的职业素质和专业技能,D. 采购程序执行情况</t>
+  </si>
+  <si>
     <t>A市某政府部门通过公开招标方式开展办公用品采购活动时，采购人员张某接受供应商财物。则以下说法正确的是：（_）</t>
   </si>
   <si>
@@ -1087,6 +1150,9 @@
     <t>D. 对张某依法给予行政处分</t>
   </si>
   <si>
+    <t>A.张某的行为若已构成犯罪，依法追究其刑事责任,B.张某的行为若尚未构成犯罪，应当对其处以罚款,C.并处没收张某违法所得,D. 对张某依法给予行政处分</t>
+  </si>
+  <si>
     <t>恒通商贸公司在参与A市某政府部门办公用品采购活动时，在公开招标采购过程中与采购人进行协商谈判并中标。则以下说法正确的是（_）</t>
   </si>
   <si>
@@ -1102,6 +1168,9 @@
     <t>D.对A市某政府部门采购活动直接负责的主管人员、直接责任人员给予处分，并予通报</t>
   </si>
   <si>
+    <t>A.恒通商贸公司中标无效,B.对恒通商贸公司处以采购金额千分之五以上千分之十以下的罚款，列入不良行为记录名单,C.在一至三年内禁止恒通商贸公司参加政府采购活动,D.对A市某政府部门采购活动直接负责的主管人员、直接责任人员给予处分，并予通报</t>
+  </si>
+  <si>
     <t>A市某政府部门通过公开招标方式开展办公用品采购活动，负责人张某在开标前向晶晶百货商店泄露标底致其顺利中标并签订采购合同，合同尚未履行时该舞弊行为被查实。则以下说法正确的是（_）</t>
   </si>
   <si>
@@ -1117,6 +1186,9 @@
     <t>D.若张某的行为构成犯罪的，依法追究刑事责任</t>
   </si>
   <si>
+    <t>B. 应当撤销与晶晶百货商店的采购合同，并从合格的中标、成交候选人中另行确定中标、成交供应商,C.依法给予张某行政处分,D.若张某的行为构成犯罪的，依法追究刑事责任</t>
+  </si>
+  <si>
     <t>采购人、采购代理机构变造采购文件的，由政府采购监督管理部门（_）</t>
   </si>
   <si>
@@ -1132,6 +1204,9 @@
     <t>D. 构成犯罪的，依法追究刑事责任</t>
   </si>
   <si>
+    <t>A.处以二万元以上十万元以下的罚款,C.对直接负责的主管人员和其他直接责任人员依法给予处分,D. 构成犯罪的，依法追究刑事责任</t>
+  </si>
+  <si>
     <t>政府采购监督管理部门对集中采购机构业绩的考核，有虚假陈述，隐瞒真实情况的，或者不作定期考核和公布考核结果的，应当（_）。</t>
   </si>
   <si>
@@ -1147,6 +1222,9 @@
     <t>D.对直接负责的人员依法给予行政处分</t>
   </si>
   <si>
+    <t>A.及时纠正,B.由上级机关或者监察机关对负责人进行通报,D.对直接负责的人员依法给予行政处分</t>
+  </si>
+  <si>
     <t>集中采购机构在政府采购监督管理部门考核中虚报业绩、隐瞒真实情况的，（_）</t>
   </si>
   <si>
@@ -1162,6 +1240,9 @@
     <t>D.依法追究刑事责任</t>
   </si>
   <si>
+    <t>B.处以二万元以上二十万元以下罚款，并予以通报,C.情节严重的，取消其代理采购资格</t>
+  </si>
+  <si>
     <t>任何单位和个人阻挠和限制供应商进入本地区或者本行业政府采购市场的，（_）。</t>
   </si>
   <si>
@@ -1171,6 +1252,9 @@
     <t>C.对该单位或个人处以二万元以上二十万元以下罚款，并予以通报</t>
   </si>
   <si>
+    <t>A.责令限期改正,B.责令限期改正后拒不改正的，由该单位、个人的上级行政主管部门或者有关机关给予单位责任人或者个人处分</t>
+  </si>
+  <si>
     <t>采购活动记录至少应当包括（_）内容。</t>
   </si>
   <si>
@@ -1186,6 +1270,9 @@
     <t>D.废标的原因</t>
   </si>
   <si>
+    <t>A.采购项目类别、名称、预算、资金构成和合同价格,B.采购方式，采用公开招标以外的采购方式的，应当载明原因,C.邀请和选择供应商的条件和原因、评标标准及确定中标人的原因,D.废标的原因</t>
+  </si>
+  <si>
     <t>不适用《政府采购法》的情形有（_）。</t>
   </si>
   <si>
@@ -1201,6 +1288,9 @@
     <t>D. 涉及国家安全和秘密的采购</t>
   </si>
   <si>
+    <t>A. 使用国际组织和外国政府贷款进行的政府采购，贷款方、资金提供方与中方达成的协议对采购的具体条件另有规定的,B. 对因严重自然灾害和其他不可抗力事件所实施的紧急采购,C. 军事采购,D. 涉及国家安全和秘密的采购</t>
+  </si>
+  <si>
     <t>规范政府采购行为的目的是为了维护国家利益和政府利益，保护政府采购当事人的合法权益，促进廉政建设。上述描述是（_）。</t>
   </si>
   <si>
@@ -1252,6 +1342,9 @@
     <t>D. 乡级以上人民政府</t>
   </si>
   <si>
+    <t>A. 省级以上人民政府,B. 市级以上人民政府</t>
+  </si>
+  <si>
     <t>政府采购必须采购本国货物、工程和服务。 上述描述是（_）。</t>
   </si>
   <si>
@@ -1291,6 +1384,9 @@
     <t>D.诚实信用</t>
   </si>
   <si>
+    <t>A.公开透明,B.公正,C.公平竞争,D.诚实信用</t>
+  </si>
+  <si>
     <t>关于财政性资金，下列说法正确的有（   ）。</t>
   </si>
   <si>
@@ -1306,6 +1402,9 @@
     <t>D.财政性资金是指纳入财政管理的资金</t>
   </si>
   <si>
+    <t>A.财政性资金是指纳入预算管理的资金,C.以财政性资金作为还款来源的借贷资金视同财政性资金</t>
+  </si>
+  <si>
     <t>国家机关、事业单位和团体组织的采购项目既使用财政性资金又使用非财政性资金时，下列说法正确的有（   ）。</t>
   </si>
   <si>
@@ -1321,6 +1420,9 @@
     <t>D.财政性资金与非财政性资金无法分割采购的，统一适用政府采购法及本条例</t>
   </si>
   <si>
+    <t>A.使用财政性资金采购的部分，适用政府采购法及本条例,B.使用非财政性资金采购的部分，不适用政府采购法及本条例,D.财政性资金与非财政性资金无法分割采购的，统一适用政府采购法及本条例</t>
+  </si>
+  <si>
     <t>关于集中采购目录，下列说法正确的有（   ）。</t>
   </si>
   <si>
@@ -1336,6 +1438,9 @@
     <t>D.纳入集中采购目录的政府采购项目，应当实行集中采购</t>
   </si>
   <si>
+    <t>A.集中采购目录包括集中采购机构采购项目和部门集中采购项目,B.技术、服务等标准统一，采购人普遍使用的项目，列为集中采购机构采购项目,D.纳入集中采购目录的政府采购项目，应当实行集中采购</t>
+  </si>
+  <si>
     <t>关于集中采购目录的确定和公布，下列说法正确的有（   ）。</t>
   </si>
   <si>
@@ -1351,6 +1456,9 @@
     <t>D.属于地方预算的政府采购项目，其集中采购目录由省、自治区、直辖市人民政府或者其授权的机构确定并公布</t>
   </si>
   <si>
+    <t>A.属于中央预算的政府采购项目，其集中采购目录由国务院确定并公布,D.属于地方预算的政府采购项目，其集中采购目录由省、自治区、直辖市人民政府或者其授权的机构确定并公布</t>
+  </si>
+  <si>
     <t>列入集中采购目录的项目应当（   ）。</t>
   </si>
   <si>
@@ -1366,6 +1474,9 @@
     <t>D.进行全国统一采购</t>
   </si>
   <si>
+    <t>A.委托集中采购机构代理采购或进行部门集中采购,B.经主管部门批准可以委托社会代理机构采购</t>
+  </si>
+  <si>
     <t>国务院财政部门应当根据国家的经济和社会发展政策，会同（   ）制定政府采购政策，通过一系列措施，实现节约能源、保护环境、扶持不发达地区和少数民族地区、促进中小企业发展等目标。</t>
   </si>
   <si>
@@ -1396,6 +1507,9 @@
     <t>D.制定采购需求标准</t>
   </si>
   <si>
+    <t>A.预留采购份额,B.价格评审优惠,C.优先采购,D.制定采购需求标准</t>
+  </si>
+  <si>
     <t>政府采购工程以及与工程建设有关的货物、服务，采用（   ）方式采购的，适用《中华人民共和国招标投标法》及其实施条例。</t>
   </si>
   <si>
@@ -1411,6 +1525,9 @@
     <t>D.单一来源采购</t>
   </si>
   <si>
+    <t>A.公开招标,C.邀请招标</t>
+  </si>
+  <si>
     <t>关于“政府采购工程以及与工程建设有关的货物、服务”，下列说法不正确的是（   ）。</t>
   </si>
   <si>
@@ -1471,6 +1588,9 @@
     <t>D.财务负责人</t>
   </si>
   <si>
+    <t>A.董事,B.总经理,C.监事,D.财务负责人</t>
+  </si>
+  <si>
     <t>在政府采购活动中，采购人员是供应商的法定代表人的（   ）的，应当回避。</t>
   </si>
   <si>
@@ -1486,6 +1606,9 @@
     <t>D.舅舅的孙子</t>
   </si>
   <si>
+    <t>A.妻子,B.子女的配偶,C.丈夫的妹妹</t>
+  </si>
+  <si>
     <t>关于采购人员及相关人员的回避，下列说法错误的有（   ）。</t>
   </si>
   <si>
@@ -1501,6 +1624,9 @@
     <t>D.受理回避申请的主体应当及时询问被申请回避人员，有利害关系的被申请回避人员应当回避</t>
   </si>
   <si>
+    <t>A.参加采购活动前3年内是供应商股东的应当回避,B.供应商认为采购人员及相关人员与其他供应商有利害关系的，无权提出回避申请,C.供应商提出回避申请的，可以采取口头形式</t>
+  </si>
+  <si>
     <t>供应商认为采购人员及相关人员与其他供应商有利害关系的，可以向（   ）提出回避申请。</t>
   </si>
   <si>
@@ -1516,6 +1642,9 @@
     <t>D.人民法院</t>
   </si>
   <si>
+    <t>A.采购人,B.采购代理机构</t>
+  </si>
+  <si>
     <t>在政府采购活动中，与采购人员一样应当遵守回避制度的“相关人员”包括（   ）等。</t>
   </si>
   <si>
@@ -1534,6 +1663,9 @@
     <t>D.必须使用外汇结算的</t>
   </si>
   <si>
+    <t>A.需要采购的货物、工程或者服务在中国境内无法获取或者无法以合理的商业条件获取的,B.为在中国境外使用而进行采购的,C.其他法律、行政法规另有规定的</t>
+  </si>
+  <si>
     <t>关于电子化政府采购，以下哪些说法是正确的：（   ）</t>
   </si>
   <si>
@@ -1549,6 +1681,9 @@
     <t>D．财政部规划的全国政府采购管理交易系统建设的主要内容是一个标准化体系、两个业务处理平台、四个共享基础数据库、八个主要子系统</t>
   </si>
   <si>
+    <t>A．电子采购有利于促进采购的公开、公平、公正和信息透明，也有利于提高政府采购效率，降低采购人和供应商成本,D．财政部规划的全国政府采购管理交易系统建设的主要内容是一个标准化体系、两个业务处理平台、四个共享基础数据库、八个主要子系统</t>
+  </si>
+  <si>
     <t>采购人在政府采购活动中有哪些责任和义务：（   ）。</t>
   </si>
   <si>
@@ -1564,6 +1699,9 @@
     <t>D.厉行节约，科学合理确定采购需求</t>
   </si>
   <si>
+    <t>A.维护国家利益和社会公共利益，执行政府采购政策,B.建立政府采购内部管理制度,C.公正廉洁，诚实守信,D.厉行节约，科学合理确定采购需求</t>
+  </si>
+  <si>
     <t>下面有关采购代理机构及其工作人员的规定，哪些是正确的：（   ）</t>
   </si>
   <si>
@@ -1579,6 +1717,9 @@
     <t>D.采购代理机构工作人员不得接受采购人或供应商组织的宴请、旅游、娱乐，不得收受礼品、现金、有价证券等</t>
   </si>
   <si>
+    <t>A.集中采购机构应当根据采购人委托制定集中采购项目的实施方案，明确采购规程，组织政府采购活动，不得将集中采购项目转委托,B.采购代理机构应当建立完善的政府采购内部监督管理制度，具备开展政府采购业务所需的评审条件和设施,C.采购代理机构应根据采购人委托在规定时间内及时组织采购人与中标（成交）供应商签订合同，及时协助采购人进行验收,D.采购代理机构工作人员不得接受采购人或供应商组织的宴请、旅游、娱乐，不得收受礼品、现金、有价证券等</t>
+  </si>
+  <si>
     <t>什么情形下采购需求应向社会征求意见：（   ）</t>
   </si>
   <si>
@@ -1609,6 +1750,9 @@
     <t>D．履行合同所必需的设备和专业技术能力的证明材料</t>
   </si>
   <si>
+    <t>A.法人或者其他组织的营业执照等证明文件，自然人的身份证明,B.供应商是法人的，应提供经审计的资产负债表、利润表、现金流量表、所有者权益变动表及其附注，或其基本开户银行出具的资信证明,C．参与采购活动前三年内在经营活动中没有重大违法记录的书面声明,D．履行合同所必需的设备和专业技术能力的证明材料</t>
+  </si>
+  <si>
     <t>以下哪些情形属于重大违法记录的范围：（   ）</t>
   </si>
   <si>
@@ -1624,6 +1768,9 @@
     <t>D.公司因销售假冒产品被有关部门吊销营业执照</t>
   </si>
   <si>
+    <t>A.公司采取假报或虚报资格等手段骗取政府采购合同等与经营活动有关的行为而受到刑事处罚,C.公司因违反环保相关规定被有关部门责令停产停业,D.公司因销售假冒产品被有关部门吊销营业执照</t>
+  </si>
+  <si>
     <t>以下情形哪些属于对供应商实行差别待遇或者歧视待遇：（   ）</t>
   </si>
   <si>
@@ -1639,6 +1786,9 @@
     <t>D．某单位采购电梯，设定的资格条件要求必须是国有企业才能参加采购活动</t>
   </si>
   <si>
+    <t>A．某北京高校公开招标采购执行期为3年的物业管理服务，设定的资格条件要求投标的供应商具有在京从事高校物业管理经验,C．某单位采购一批IT设备，设定的资格条件要求供应商具备系统集成一级资质,D．某单位采购电梯，设定的资格条件要求必须是国有企业才能参加采购活动</t>
+  </si>
+  <si>
     <t>以下哪些不属于以化整为零方式规避公开招标的情形：（   ）</t>
   </si>
   <si>
@@ -1654,6 +1804,9 @@
     <t>D．某单位年初部门预算编列采购计算机100台，预算金额50万元，采用询价采购方式完成采购后，由于工作需要，调整预算后追加项目采购预算50万元，并再次采用询价采购方式采购了计算机100台，公开招标数额标准为100万元</t>
   </si>
   <si>
+    <t>A．某单位年初部门预算编列采购一批服装，预算金额500万元，公开招标数额标准为100万元，根据具体情况，分两次采用公开招标采购方式实施采购,B．某单位年初部门预算编列采购一批计算机、打印机，预算金额100万元，公开招标数额标准为100万元，实施采购过程中，对计算机、打印机分别实施询价采购方式采购,D．某单位年初部门预算编列采购计算机100台，预算金额50万元，采用询价采购方式完成采购后，由于工作需要，调整预算后追加项目采购预算50万元，并再次采用询价采购方式采购了计算机100台，公开招标数额标准为100万元</t>
+  </si>
+  <si>
     <t>以下哪种关于批量集中采购的说法是正确的：（   ）</t>
   </si>
   <si>
@@ -1669,6 +1822,9 @@
     <t>D.可以在电子商城中开辟批量集中采购频道，以电子拍卖方式实施竞价采购</t>
   </si>
   <si>
+    <t>C.应当实行批量集中采购的，但紧急的小额零星货物项目和有特殊要求的服务、工程项目可不实行批量集中采购,D.可以在电子商城中开辟批量集中采购频道，以电子拍卖方式实施竞价采购</t>
+  </si>
+  <si>
     <t>政府采购工程依法不进行招标的应采用以下哪种方式采购：（   ）</t>
   </si>
   <si>
@@ -1684,6 +1840,9 @@
     <t>D．竞争性磋商</t>
   </si>
   <si>
+    <t>A．竞争性谈判,C．单一来源采购,D．竞争性磋商</t>
+  </si>
+  <si>
     <t>以下哪些属于单一来源采购方式的法定情形：（   ）</t>
   </si>
   <si>
@@ -1699,6 +1858,9 @@
     <t>D．必须保证原有采购项目一致性或者服务配套的要求，需要继续从原有供应商处添购的</t>
   </si>
   <si>
+    <t>A．只能从唯一供应商处采购的,C．发生了不可预见的紧急情况不能从其他供应商处采购的</t>
+  </si>
+  <si>
     <t>在什么情况下联合体投标及联合体各方投标均无效：（   ）</t>
   </si>
   <si>
@@ -1714,6 +1876,9 @@
     <t>D．联合体中各方又加入到其他联合体，在同一合同项下投标的</t>
   </si>
   <si>
+    <t>B．采购公告载明不接受以联合体形式投标,供应商组成联合体形式投标的,C．联合体及联合体中各方以自己的名义参与的,D．联合体中各方又加入到其他联合体，在同一合同项下投标的</t>
+  </si>
+  <si>
     <t>采购人以下哪些行为不符合政府采购法及实施条例的规定：（   ）</t>
   </si>
   <si>
@@ -1729,6 +1894,9 @@
     <t>D．采购人在合同签订前要求供应商另行赠送中标金额5%的设备耗材</t>
   </si>
   <si>
+    <t>B．采购人在合同签订完成后要求供应商额外免费提供培训,C．采购人在招标文件中要求供应商提供外地考察、调研，并承担费用,D．采购人在合同签订前要求供应商另行赠送中标金额5%的设备耗材</t>
+  </si>
+  <si>
     <t>以下哪些情况属于采购代理机构应当禁止的行为：（   ）</t>
   </si>
   <si>
@@ -1744,6 +1912,9 @@
     <t>D．社会代理机构向采购人账外返还佣金</t>
   </si>
   <si>
+    <t>A．承揽业务时向采购人承诺确保特定供应商中标,B．集中采购机构将部分项目通过竞价交由社会代理机构代理采购,C．社会代理机构向中标供应商收取招标文件约定外的佣金,D．社会代理机构向采购人账外返还佣金</t>
+  </si>
+  <si>
     <t>以下关于采购人委托采购代理机构的说法，哪些是错误的：（   ）</t>
   </si>
   <si>
@@ -1759,6 +1930,9 @@
     <t>D．集中采购目录外的采购项目可以委托集中采购机构实施采购</t>
   </si>
   <si>
+    <t>A．集中采购目录范围内的采购项目，采购人可以自行确定采购代理机构,B．集中采购目录范围内的采购项目，采购人也可选择自行组织采购,C．政府采购项目必须委托采购代理机构实施采购</t>
+  </si>
+  <si>
     <t>以下关于采购代理机构权限的说法哪些是正确的：（   ）</t>
   </si>
   <si>
@@ -1774,6 +1948,9 @@
     <t>D．超越委托协议权限实施的代理采购活动获得采购人追认的，采购行为有效</t>
   </si>
   <si>
+    <t>A．不得超越委托协议权限实施采购活动,D．超越委托协议权限实施的代理采购活动获得采购人追认的，采购行为有效</t>
+  </si>
+  <si>
     <t>货物和服务招标文件应当包括：（   ）</t>
   </si>
   <si>
@@ -1789,6 +1966,9 @@
     <t>D．评标委员会的组成和产生方式</t>
   </si>
   <si>
+    <t>A．采购需求,B．投标人的资格条件,C．评标方法和标准</t>
+  </si>
+  <si>
     <t>招标文件要求投标人提交投标保证金的，投标保证金应当：（   ）</t>
   </si>
   <si>
@@ -1804,6 +1984,9 @@
     <t>D．由招标采购单位按照不超过采购项目预算金额2%的原则确定一个固定数额</t>
   </si>
   <si>
+    <t>B．不得超过采购项目预算金额的2%,D．由招标采购单位按照不超过采购项目预算金额2%的原则确定一个固定数额</t>
+  </si>
+  <si>
     <t>货物和服务招标采用综合评分法表述错误的是：（   ）</t>
   </si>
   <si>
@@ -1819,6 +2002,9 @@
     <t>D．投标人的资格条件优于招标文件规定的，可以作为加分因素</t>
   </si>
   <si>
+    <t>A．为避免恶意低价竞争，应当将平均报价作为标准价，获得最高价格得分,B．采用综合评分法的，为排除干扰，可以在招标文件中规定，汇总评分时去掉最高最低分,D．投标人的资格条件优于招标文件规定的，可以作为加分因素</t>
+  </si>
+  <si>
     <t>招标项目公开预算金额错误的做法是：（   ）</t>
   </si>
   <si>
@@ -1834,6 +2020,9 @@
     <t>D．开标仪式中宣布</t>
   </si>
   <si>
+    <t>C．开标前5天公开,D．开标仪式中宣布</t>
+  </si>
+  <si>
     <t>非招标采购方式采购活动中错误的做法是：（   ）</t>
   </si>
   <si>
@@ -1849,6 +2038,9 @@
     <t>D．技术复杂、专业性强的竞争性磋商项目，评审专家中应当包含1名法律专家</t>
   </si>
   <si>
+    <t>A．技术复杂、专业性强的询价采购项目，通过随机方式难以确定合适的评审专家的，经主管预算单位同意，可以自行选定评审专家,B．技术复杂、专业性强的竞争性谈判项目，通过随机方式难以确定合适的评审专家的，经主管预算单位和本级财政部门同意，可以自行选定评审专家,C．单一来源方式采购中，采购人、采购代理机构应当从政府采购评审专家库中随机抽取专业人员，与供应商商定合理的成交价格并保证采购项目质量</t>
+  </si>
+  <si>
     <t>货物和服务招标工作中，下面关于评标委员会表述中，正确的有：（   ）</t>
   </si>
   <si>
@@ -1864,6 +2056,9 @@
     <t>D．评标委员会成员对评标报告有异议的，应当在评标报告上签署不同意见，并说明理由，否则视为同意评标报告</t>
   </si>
   <si>
+    <t>A．评标委员会成员应当按照客观、公正、审慎的原则评标,C．招标文件内容违反国家有关强制性规定的，评标委员会应当停止评标并向招标采购单位说明情况,D．评标委员会成员对评标报告有异议的，应当在评标报告上签署不同意见，并说明理由，否则视为同意评标报告</t>
+  </si>
+  <si>
     <t>关于评标方法，以下说法正确的是：（   ）</t>
   </si>
   <si>
@@ -1876,6 +2071,9 @@
     <t>C．采用综合评分法评标时，要将采购需求中除实质性条款外的其它因素用折算后的分值体现。评标因素一般包括价格、商务、技术和服务四部分内容，货物、服务和工程三类项目，由于招标特点不同，有各不相同的评标因素</t>
   </si>
   <si>
+    <t>B．采用最低评标价法评标，评标程序更简单，经过资格性审查和符合性审查后，评标只需要对合格投标人的投标报价进行从低到高的排序，将投标报价最低的供应商确定为中标候选人即可,C．采用综合评分法评标时，要将采购需求中除实质性条款外的其它因素用折算后的分值体现。评标因素一般包括价格、商务、技术和服务四部分内容，货物、服务和工程三类项目，由于招标特点不同，有各不相同的评标因素</t>
+  </si>
+  <si>
     <t>询价采购中正确的做法包括：（   ）</t>
   </si>
   <si>
@@ -1891,6 +2089,9 @@
     <t>D．在询价过程中，询价小组不得改变询价通知书所确定的政府采购合同条款</t>
   </si>
   <si>
+    <t>A．提交响应文件截止之日前，采购人、采购代理机构或者询价小组可以对已发出的询价通知书进行必要的澄清或者修改，澄清或者修改的内容作为询价通知书的组成部分,C．供应商在响应文件中只能一次报出不得更改的价格,D．在询价过程中，询价小组不得改变询价通知书所确定的政府采购合同条款</t>
+  </si>
+  <si>
     <t>在政府采购活动中，关于保证金正确的规定有：（   ）</t>
   </si>
   <si>
@@ -1906,6 +2107,9 @@
     <t>D．中标供应商的投标保证金应当自政府采购合同签订之日起5个工作日内退还</t>
   </si>
   <si>
+    <t>A．投标保证金应当以支票、汇票、本票或者金融机构、担保机构出具的保函等非现金形式提交,C．未中标供应商的投标保证金应当自中标通知书发出之日起5个工作日内退还,D．中标供应商的投标保证金应当自政府采购合同签订之日起5个工作日内退还</t>
+  </si>
+  <si>
     <t>政府采购评审过程中，对采购人和采购代理机构正确的要求包括：（   ）</t>
   </si>
   <si>
@@ -1921,6 +2125,9 @@
     <t>D．可以根据评审委员会的要求解释采购文件</t>
   </si>
   <si>
+    <t>A．维护评审现场纪律,B．不得向评标委员会、竞争性谈判小组或者询价小组的评审专家作倾向性、误导性的解释或者说明,C．可以介绍政府采购相关政策法规,D．可以根据评审委员会的要求解释采购文件</t>
+  </si>
+  <si>
     <t>评审结果汇总完成后，出现下述情形的，评审委员会应当现场修改评审结果，并在评审报告中明确记载：（   ）</t>
   </si>
   <si>
@@ -1936,6 +2143,9 @@
     <t>D．主观分评分不一致</t>
   </si>
   <si>
+    <t>A．资格性检查认定错误,B．分值汇总计算错误,C．分项评分超出评分标准范围</t>
+  </si>
+  <si>
     <t>政府向社会公众提供的公共服务项目，正确的说法是：（   ）</t>
   </si>
   <si>
@@ -1951,6 +2161,9 @@
     <t>D．验收时应当邀请服务对象参与并出具意见</t>
   </si>
   <si>
+    <t>B．应当就确定采购需求征求社会公众的意见,D．验收时应当邀请服务对象参与并出具意见</t>
+  </si>
+  <si>
     <t>评审结束至采购人确定中标成交结果前，排名第一的供应商出现下列情形，采购人应当不确定其为中标成交供应商：（   ）</t>
   </si>
   <si>
@@ -1966,6 +2179,9 @@
     <t>D．信息系统招标项目，其书面通知采购人因上游厂商停产，申请更换投标设备型号</t>
   </si>
   <si>
+    <t>C．软件招标项目，其书面通知放弃投标,D．信息系统招标项目，其书面通知采购人因上游厂商停产，申请更换投标设备型号</t>
+  </si>
+  <si>
     <t>政府采购评审专家，正确的说法是：（   ）</t>
   </si>
   <si>
@@ -1981,6 +2197,9 @@
     <t>D．评审过程中发现供应商有行贿、提供虚假材料或者串通等违法行为的，应当立即停止评审并向财政部门报告</t>
   </si>
   <si>
+    <t>A．应当遵守评审工作纪律，不得泄露评审文件、评审情况和评审中获悉的商业秘密,C．评审开始前应当自觉将通讯工具交采购人或采购代理机构统一保管</t>
+  </si>
+  <si>
     <t>关于政府采购验收正确的做法是：（ ）</t>
   </si>
   <si>
@@ -1996,6 +2215,9 @@
     <t>D．验收后应当出具验收书，验收方成员应当在验收书上签字，并承担相应的法律责任</t>
   </si>
   <si>
+    <t>A．验收由采购人或其委托的单位负责组织,B．大型或者复杂的项目，可邀请国家认可的质量检测机构参加验收,D．验收后应当出具验收书，验收方成员应当在验收书上签字，并承担相应的法律责任</t>
+  </si>
+  <si>
     <t>有关中标成交结果公告错误的表述有：（ ）</t>
   </si>
   <si>
@@ -2011,6 +2233,9 @@
     <t>D．中标成交结果公告应当在中标成交供应商确定之日起5个工作日内发布</t>
   </si>
   <si>
+    <t>A．可以用中标成交结果公示替代中标成交结果公告,C．中标成交结果公告期限结束无质疑后才能发出中标成交通知书,D．中标成交结果公告应当在中标成交供应商确定之日起5个工作日内发布</t>
+  </si>
+  <si>
     <t>中标成交结果公告的内容应当包括：（ ）</t>
   </si>
   <si>
@@ -2026,6 +2251,9 @@
     <t>D．招标等采购公告发布日期</t>
   </si>
   <si>
+    <t>A．采购人和采购代理机构的名称、地址、联系方式,B．中标或者成交供应商名称、地址和中标或者成交金额,C．主要中标或者成交标的的名称、规格型号、数量、单价、服务要求</t>
+  </si>
+  <si>
     <t>政府采购合同标准文本由______制定。（ ）</t>
   </si>
   <si>
@@ -2056,6 +2284,9 @@
     <t>D.履约保证金可以以支票、汇票、本票或者金融机构、担保机构出具的保函等形式提交</t>
   </si>
   <si>
+    <t>B.是否需要提交履约保证金，由项目采购文件进行约定,D.履约保证金可以以支票、汇票、本票或者金融机构、担保机构出具的保函等形式提交</t>
+  </si>
+  <si>
     <t>政府采购合同履约保证金的数额不得超过：（ ）</t>
   </si>
   <si>
@@ -2086,6 +2317,9 @@
     <t>D.决定终止政府采购活动</t>
   </si>
   <si>
+    <t>B.按照评审报告推荐的中标或者成交候选人名单排序，确定下一候选人为中标或者成交供应商,C.重新开展政府采购活动</t>
+  </si>
+  <si>
     <t>采购人应当自政府采购合同签订之日起______内，将政府采购合同在省级以上人民政府财政部门指定的媒体上公告，但政府采购合同中涉及国家秘密、商业秘密的内容除外。（ ）</t>
   </si>
   <si>
@@ -2116,6 +2350,9 @@
     <t>D.合同中涉及个人稳私的内容，不能擅自公开</t>
   </si>
   <si>
+    <t>A.不涉及国家秘密、商业秘密的政府采购合同应当一律公告,C.涉及国家秘密、商业秘密的政府采购合同，除合同中涉及的国家秘密、商业秘密内容外，合同其他内容应当予以公告,D.合同中涉及个人稳私的内容，不能擅自公开</t>
+  </si>
+  <si>
     <t>对供应商依法提出的询问，采购人或者其委托的采购代理机构应当在______内作出答复；对供应商依法提出的质疑，采购人或者其委托的采购代理机构应当在______内作出答复。（ ）</t>
   </si>
   <si>
@@ -2146,6 +2383,9 @@
     <t>D.供应商提出的询问或者质疑超出采购人对采购代理机构委托授权范围的，采购代理机构应当告知供应商向采购人提出</t>
   </si>
   <si>
+    <t>C.供应商向采购代理机构提出询问或者质疑的，采购代理机构应当就采购人委托授权范围内的事项作出答复,D.供应商提出的询问或者质疑超出采购人对采购代理机构委托授权范围的，采购代理机构应当告知供应商向采购人提出</t>
+  </si>
+  <si>
     <t>以下哪些事项应当采用书面形式：（ ）</t>
   </si>
   <si>
@@ -2161,6 +2401,9 @@
     <t>D.采购人答复供应商的询问</t>
   </si>
   <si>
+    <t>B.供应商向采购人提出质疑,C.供应商向政府采购监督管理部门提出投诉</t>
+  </si>
+  <si>
     <t>关于供应商提出质疑的期限，下列说法正确的是：（ ）</t>
   </si>
   <si>
@@ -2176,6 +2419,9 @@
     <t>D.对中标或者成交结果提出质疑的，为中标或者成交结果公告之日起七个工作日</t>
   </si>
   <si>
+    <t>A.对可以质疑的采购文件提出质疑的，为收到采购文件之日或者采购文件公告期限届满之日起七个工作日,B.对开标过程提出质疑的，为开标结束之日起七个工作日,C.对中标或者成交结果提出质疑的，为中标或者成交结果公告期限届满之日起七个工作日</t>
+  </si>
+  <si>
     <t>根据《政府采购法》第四十二条第二款，采购文件包括采购活动记录、采购预算、招标文件、投标文件、评标标准、评估报告、定标文件、合同文本、验收证明、质疑答复、投诉处理决定及其他有关文件、资料。下列采购文件中，属于可以质疑的采购文件的有：（ ）</t>
   </si>
   <si>
@@ -2191,6 +2437,9 @@
     <t>D.质疑答复</t>
   </si>
   <si>
+    <t>B.招标文件,C.评标标准</t>
+  </si>
+  <si>
     <t>为了保障供应商通过询问、质疑、投诉等救济机制得到实质性救济，为其保留商业机会，在供应商询问、质疑答复或者投诉处理期间：（ ）</t>
   </si>
   <si>
@@ -2206,6 +2455,9 @@
     <t>D.政府采购监督管理部门在处理投诉事项期间，可以视具体情况书面通知采购人暂停采购活动，但暂停时间最长不得超过三十日</t>
   </si>
   <si>
+    <t>A.询问或者质疑事项可能影响中标、成交结果，尚未签订合同的，采购人应当暂停签订合同,B.询问或者质疑事项可能影响中标、成交结果，已经签订合同的，采购人应当中止履行合同,D.政府采购监督管理部门在处理投诉事项期间，可以视具体情况书面通知采购人暂停采购活动，但暂停时间最长不得超过三十日</t>
+  </si>
+  <si>
     <t>关于供应商提出质疑、投诉的相关要求，下列说法正确的是：（ ）</t>
   </si>
   <si>
@@ -2221,6 +2473,9 @@
     <t>D.供应商投诉的事项不得超出已质疑事项的范围</t>
   </si>
   <si>
+    <t>A.供应商提出质疑、投诉应当有明确的请求,B.供应商提出质疑、投诉应当有必要的证明材料,C.只有曾依法提出质疑的供应商才有权提起投诉,D.供应商投诉的事项不得超出已质疑事项的范围</t>
+  </si>
+  <si>
     <t>关于财政部门处理投诉事项的方式，下列说法正确的是：（ ）</t>
   </si>
   <si>
@@ -2236,6 +2491,9 @@
     <t>D.一般采用书面审查的方式，案情简单的也可以口头审查</t>
   </si>
   <si>
+    <t>B.一般采用书面审查的方式，必要时可以进行调查取证,C.一般采用书面审查的方式，必要时可以组织质证</t>
+  </si>
+  <si>
     <t>财政部门处理投诉事项依法进行调查取证的：（ ）</t>
   </si>
   <si>
@@ -2251,6 +2509,9 @@
     <t>D.被调查的相关当事人应当如实向财政部门反映情况，并提供相关材料</t>
   </si>
   <si>
+    <t>A.可以向投诉人和与投诉事项有关的当事人进行调查取证,D.被调查的相关当事人应当如实向财政部门反映情况，并提供相关材料</t>
+  </si>
+  <si>
     <t>质疑供应商对采购人、采购代理机构的质疑答复不满意或者采购人、采购代理机构未在规定的时间内作出答复的，可以在质疑答复期满后______内向采购人的本级财政部门投诉。财政部门应当在收到投诉后______内对投诉事项作出处理决定。（ ）</t>
   </si>
   <si>
@@ -2281,6 +2542,9 @@
     <t>D.投诉人的投诉书内容不符合规定</t>
   </si>
   <si>
+    <t>A.投诉人捏造事实、提供虚假材料进行投诉,B.投诉人以非法手段取得证明材料进行投诉</t>
+  </si>
+  <si>
     <t>财政部门受理投诉后，投诉人书面申请撤回投诉的，财政部门应当：（ ）</t>
   </si>
   <si>
@@ -2311,6 +2575,9 @@
     <t>D.向采购人、采购代理机构调取与投诉事项有关的采购文件的时间</t>
   </si>
   <si>
+    <t>A.对投诉事项进行检验、检测、鉴定的时间,B.对投诉事项进行专家评审的时间,C.投诉人补正材料的时间</t>
+  </si>
+  <si>
     <t>下列内容中，应当在省级以上人民政府财政部门指定的媒体上公告的有：（ ）</t>
   </si>
   <si>
@@ -2326,6 +2593,9 @@
     <t>D.政府采购合同</t>
   </si>
   <si>
+    <t>B.投诉处理决定,D.政府采购合同</t>
+  </si>
+  <si>
     <t>甲采购代理机构代理的某大型设备政府采购项目，项目招标文件中要求“合同签订后30天内交付”，但对于“交付”究竟是指货到现场或者吊装就位，还是指完成安装调试或者验收通过，招标文件并没有进一步的说明。该大型设备的现场吊装就位和安装调试等所需费用较高，直接影响投标人的投标报价。A供应商一心要参加该项目投标，在购买招标文件后，针对上述问题，A供应商的最佳做法是：（ ）</t>
   </si>
   <si>
@@ -2371,6 +2641,9 @@
     <t>D.政府采购合同继续履行将损害国家利益和社会公共利益的，双方当事人应当变更、中止或者终止合同</t>
   </si>
   <si>
+    <t>A.采购人可以委托采购代理机构代表其与供应商签订政府采购合同,B.政府采购合同应当采用书面形式,D.政府采购合同继续履行将损害国家利益和社会公共利益的，双方当事人应当变更、中止或者终止合同</t>
+  </si>
+  <si>
     <t>关于供应商询问、质疑、投诉，下列说法正确的是：（ ）</t>
   </si>
   <si>
@@ -2386,6 +2659,9 @@
     <t>D.为了尽可能减少对采购流程、采购周期的影响，提高时效性，法律法规对询问、质疑、投诉的提出、答复或处理都规定了相应的期限</t>
   </si>
   <si>
+    <t>B.询问可以采取书面形式，也可以采取口头形式，质疑和投诉必须采用书面形式,C.供应商对政府采购活动事项有疑问的，可以向采购人或者采购代理机构提出询问，采购人或者采购代理机构应当在规定期限内答复</t>
+  </si>
+  <si>
     <t>关于政府采购项目资金支付，下列说法正确的是：（ ）</t>
   </si>
   <si>
@@ -2401,6 +2677,9 @@
     <t>D.采购人不按照政府采购合同规定及时向中标或者成交供应商支付采购资金的，应当根据政府采购合同规定承担相应的违约责任</t>
   </si>
   <si>
+    <t>A.采购人应当按照政府采购合同规定，及时向中标或者成交供应商支付采购资金,C.政府采购项目资金支付程序，按照国家有关财政资金支付管理的规定执行,D.采购人不按照政府采购合同规定及时向中标或者成交供应商支付采购资金的，应当根据政府采购合同规定承担相应的违约责任</t>
+  </si>
+  <si>
     <t>政府采购项目的采购标准是指项目采购所依据的标准，包括：（ ）</t>
   </si>
   <si>
@@ -2416,6 +2695,9 @@
     <t>D.服务标准</t>
   </si>
   <si>
+    <t>A.经费预算标准,B.资产配置标准,C.技术标准,D.服务标准</t>
+  </si>
+  <si>
     <t>政府采购监督管理部门对集中采购机构的考核除采购价格、节约资金效果、服务质量、信誉状况、有无违法行为等事项外，考核事项还包括：（ ）</t>
   </si>
   <si>
@@ -2431,6 +2713,9 @@
     <t>D．询问、质疑答复情况</t>
   </si>
   <si>
+    <t>A．政府采购政策的执行情况,B．采购文件编制水平,C．采购方式和采购程序的执行情况,D．询问、质疑答复情况</t>
+  </si>
+  <si>
     <t>政府采购监督管理部门对集中采购机构业绩的考核存在下列情形的，应当及时纠正，由其上级机关或者监察机关对其负责人进行通报，并对直接负责的人员依法给予行政处分：（</t>
   </si>
   <si>
@@ -2446,6 +2731,9 @@
     <t>D．不公布考核结果的</t>
   </si>
   <si>
+    <t>A．有虚假陈述的,B．隐瞒真实情况的,C．不作定期考核的,D．不公布考核结果的</t>
+  </si>
+  <si>
     <t>集中采购机构在政府采购监督管理部门考核中存在下列情形的，处以二万元以上二十万元以下的罚款，并予以通报；情节严重的，取消其代理采购的资格:（ ）</t>
   </si>
   <si>
@@ -2458,6 +2746,9 @@
     <t>D．拒绝考核人员询问的</t>
   </si>
   <si>
+    <t>A．虚报业绩的,B．隐瞒真实情况的</t>
+  </si>
+  <si>
     <t>采购代理机构发现采购人的采购需求存在下列情形的，应当建议其改正。采购人拒不改正的，采购代理机构应当向采购人的本级人民政府财政部门报告，财政部门应当依法处理：（ ）</t>
   </si>
   <si>
@@ -2473,6 +2764,9 @@
     <t>D．采购需求中的技术、服务等要求指向特定供应商、特定产品</t>
   </si>
   <si>
+    <t>A．以不合理条件对供应商实行差别待遇、歧视待遇,B．不符合政府采购政策规定内容,C．设定的资格、技术、商务条件与采购项目的具体特点和实际需要不相适应或者与合同履行无关,D．采购需求中的技术、服务等要求指向特定供应商、特定产品</t>
+  </si>
+  <si>
     <t>各级人民政府财政部门和其他有关部门应当加强对下列参加政府采购活动的当事人和相关人员的监督管理，对其不良行为予以记录，并纳入统一的信用信息平台：（ ）</t>
   </si>
   <si>
@@ -2488,6 +2782,9 @@
     <t>D．政府采购评审专家</t>
   </si>
   <si>
+    <t>B．供应商,C．采购代理机构,D．政府采购评审专家</t>
+  </si>
+  <si>
     <t>各级人民政府财政部门可以采取下列方式对政府采购活动进行监督检查，相关单位和人员应当予以配合：（ ）</t>
   </si>
   <si>
@@ -2503,6 +2800,9 @@
     <t>D．有权讯问相关人员</t>
   </si>
   <si>
+    <t>A．有权查阅有关文件、资料,B．有权复制有关文件、资料,C．有权询问相关人员</t>
+  </si>
+  <si>
     <t>下列机关依法对政府采购活动实施监督，发现采购当事人有违法行为的，应当及时通报财政部门：（ ）</t>
   </si>
   <si>
@@ -2518,6 +2818,9 @@
     <t>D．公安机关</t>
   </si>
   <si>
+    <t>A．审计机关,B．监察机关</t>
+  </si>
+  <si>
     <t>中标、成交通知书发出后，采购人、采购代理机构不与中标、成交供应商签订采购合同的，责令限期改正，给予警告，可以并处罚款，数额为______元以下。（ ）</t>
   </si>
   <si>
@@ -2548,6 +2851,9 @@
     <t>D．擅自变更、中止或者终止政府采购合同</t>
   </si>
   <si>
+    <t>A．未按照规定编制政府采购实施计划或者未按照规定将政府采购实施计划报本级人民政府财政部门备案,B．未按照采购文件确定的事项签订政府采购合同,C．政府采购合同履行中追加与合同标的相同的货物、工程或者服务的采购金额超过原合同采购金额10%,D．擅自变更、中止或者终止政府采购合同</t>
+  </si>
+  <si>
     <t>采购人未按照规定在评标委员会、竞争性谈判小组或者询价小组推荐的中标或者成交候选人中确定中标或者成交供应商的，由财政部门按照下列规定处理：（ ）</t>
   </si>
   <si>
@@ -2563,6 +2869,9 @@
     <t>D．处以20万元以下罚款</t>
   </si>
   <si>
+    <t>A．责令限期改正,B．给予警告,C．对直接负责的主管人员和其他直接责任人员依法给予处分，并予以通报</t>
+  </si>
+  <si>
     <t>采购人、采购代理机构有下列情形之一的，依照政府采购法第七十一条、第七十八条的规定追究法律责任：（ ）</t>
   </si>
   <si>
@@ -2578,6 +2887,9 @@
     <t>D．通过对样品进行检测、对供应商进行考察等方式改变评审结果</t>
   </si>
   <si>
+    <t>A．未按照规定执行政府采购政策,B．未依法从政府采购评审专家库中抽取评审专家,C．采用综合评分法时评审标准中的分值设置未与评审因素的量化指标相对应,D．通过对样品进行检测、对供应商进行考察等方式改变评审结果</t>
+  </si>
+  <si>
     <t>集中采购机构有下列情形之一的，由财政部门责令限期改正，给予警告，有违法所得的，并处没收违法所得，对直接负责的主管人员和其他直接责任人员依法给予处分，并予以通报：（ ）</t>
   </si>
   <si>
@@ -2593,6 +2905,9 @@
     <t>D．收取招标文件成本费用</t>
   </si>
   <si>
+    <t>A．内部监督管理制度不健全,B．对依法应当分设、分离的岗位、人员未分设、分离,C．将集中采购项目委托其他采购代理机构采购</t>
+  </si>
+  <si>
     <t>有政府采购法第七十一条、第七十二条规定的违法行为之一，影响或者可能影响中标、成交结果的，依照下列规定处理：（ ）</t>
   </si>
   <si>
@@ -2608,6 +2923,9 @@
     <t>D．政府采购合同已经履行，给采购人、供应商造成损失的，由采购人、供应商自行承担损失责任</t>
   </si>
   <si>
+    <t>B．已确定中标或者成交供应商但尚未签订政府采购合同的，中标或者成交结果无效，从合格的中标或者成交候选人中另行确定中标或者成交供应商；没有合格的中标或者成交候选人的，重新开展政府采购活动,政府采购合同已签订但尚未履行的，撤销合同，从合格的中标或者成交候选人中另行确定中标或者成交供应商；没有合格的中标或者成交候选人的，重新开展政府采购活动</t>
+  </si>
+  <si>
     <t>供应商有下列情形之一的，依照政府采购法第七十七条第一款的规定追究法律责任：（ ）</t>
   </si>
   <si>
@@ -2620,6 +2938,9 @@
     <t>D．与采购人协商将政府采购合同分包</t>
   </si>
   <si>
+    <t>A．中标或者成交后无正当理由拒不与采购人签订政府采购合同,B．未按照采购文件确定的事项签订政府采购合同,C．将政府采购合同转包</t>
+  </si>
+  <si>
     <t>供应商以下列方式进行投诉的，由财政部门列入不良行为记录名单，禁止其1至3年内参加政府采购活动：（ ）</t>
   </si>
   <si>
@@ -2635,6 +2956,9 @@
     <t>D．以非法手段获取证明材料</t>
   </si>
   <si>
+    <t>A．捏造事实,B．提供伪造材料,C．提供变造材料,D．以非法手段获取证明材料</t>
+  </si>
+  <si>
     <t>供应商有下列情形之一的，属于供应商之间恶意串通，依照政府采购法第七十七条第一款的规定追究法律责任：（ ）</t>
   </si>
   <si>
@@ -2650,6 +2974,9 @@
     <t>D．供应商之间商定部分供应商放弃参加政府采购活动或者放弃中标、成交</t>
   </si>
   <si>
+    <t>A．供应商之间协商报价、技术方案等投标文件或者响应文件的实质性内容,B．属于同一集团、协会、商会等组织成员的供应商按照该组织要求协同参加政府采购活动,C．供应商之间事先约定由某一特定供应商中标、成交,D．供应商之间商定部分供应商放弃参加政府采购活动或者放弃中标、成交</t>
+  </si>
+  <si>
     <t>采购人、采购代理机构有下列情形之一的，属于供应商与采购人、采购代理机构恶意串通，依照政府采购法第七十二条的规定追究法律责任：（ ）</t>
   </si>
   <si>
@@ -2665,6 +2992,9 @@
     <t>D．采购人或者采购代理机构向投标人供应商泄露评标委员会成员等信息</t>
   </si>
   <si>
+    <t>A．供应商直接或者间接从采购人或者采购代理机构处获得其他供应商的相关情况并修改其投标文件或者响应文件,B．供应商按照采购人或者采购代理机构的授意撤换、修改投标文件或者响应文件,C．采购人或者采购代理机构在开标前开启投标文件并将有关信息泄露给其他投标人,D．采购人或者采购代理机构向投标人供应商泄露评标委员会成员等信息</t>
+  </si>
+  <si>
     <t>政府采购评审专家存在下列违法情形的，由财政部门给予警告，并处2000元以上2万元以下的罚款：（ ）</t>
   </si>
   <si>
@@ -2680,15 +3010,24 @@
     <t>D．收受采购人、采购代理机构、供应商贿赂或者获取其他不正当利益的</t>
   </si>
   <si>
+    <t>A．未按照采购文件规定的评审程序、评审方法和评审标准进行独立评审的,B．泄露评审文件、评审情况的</t>
+  </si>
+  <si>
     <t>政府采购评审专家存在下列违法情形的，由财政部门处2万元以上5万元以下的罚款，禁止其参加政府采购评审活动：（ ）</t>
   </si>
   <si>
     <t>A．未按照采购文件规定的评审程序、评审方法和评审标准进行独立评审，影响中标、成交结果的</t>
   </si>
   <si>
+    <t>A．未按照采购文件规定的评审程序、评审方法和评审标准进行独立评审，影响中标、成交结果的,C．与供应商存在利害关系未回避的,D．收受采购人、采购代理机构、供应商贿赂或者获取其他不正当利益的</t>
+  </si>
+  <si>
     <t>政府采购评审专家有下列违法行为情形的，其评审意见无效，不得获取评审费；有违法所得的，没收违法所得；给他人造成损失的，依法承担民事责任：（ ）</t>
   </si>
   <si>
+    <t>A．未按照采购文件规定的评审程序、评审方法和评审标准进行独立评审的,B．泄露评审文件、评审情况的,C．与供应商存在利害关系未回避的,D．收受采购人、采购代理机构、供应商贿赂或者获取其他不正当利益的</t>
+  </si>
+  <si>
     <t>99. 《政府采购法实施条例》自______起施行。（ ）</t>
   </si>
   <si>
@@ -2719,6 +3058,9 @@
     <t>D.在国务院财政部门指定的全国政府采购信息发布媒体上刊登法定的政府采购信息，全部免费</t>
   </si>
   <si>
+    <t>A．除财政部和省级财政部门以外，其他任何单位和个人不得指定政府采购信息的发布媒体,B.《中国财经报》（《中国政府采购报》）是财政部指定的全国政府采购信息发布媒体之一,C.财政部负责确定政府采购信息公告的基本范围和内容，省级（含计划单列市）财政部门负责确定本地区政府采购信息公告的范围和内容,D.在国务院财政部门指定的全国政府采购信息发布媒体上刊登法定的政府采购信息，全部免费</t>
+  </si>
+  <si>
     <t>《中华人民共和国政府采购法实施条例》所规范的“服务”包括（   ）。</t>
   </si>
   <si>
@@ -2732,6 +3074,13 @@
   </si>
   <si>
     <t>D.政府自身需要的服务</t>
+  </si>
+  <si>
+    <t>B.政府向社会公众提供的公共服务,D.政府自身需要的服务</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2789,13 +3138,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3136,4036 +3497,4640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="39.625" style="1" customWidth="1"/>
-    <col min="2" max="6" width="25.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37" style="1" customWidth="1"/>
+    <col min="3" max="7" width="25.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
+      <c r="G53" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B54" s="2" t="s">
+    </row>
+    <row r="54" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
+      <c r="F54" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="G54" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C55" s="2" t="s">
+    </row>
+    <row r="55" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="D55" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
+      <c r="E55" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="F55" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="G55" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D56" s="2" t="s">
+    </row>
+    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="C56" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
+      <c r="D56" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="E56" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="F56" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="G56" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E57" s="2" t="s">
+    </row>
+    <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
+      <c r="C57" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="D57" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="E57" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="F57" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="G57" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+    </row>
+    <row r="58" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C58" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D58" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E58" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F58" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
+      <c r="G58" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B60" s="2" t="s">
+    </row>
+    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C59" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D59" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E59" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+      <c r="F59" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="G59" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C61" s="2" t="s">
+    </row>
+    <row r="60" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="C60" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="D60" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
+      <c r="E60" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="F60" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="G60" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D62" s="2" t="s">
+    </row>
+    <row r="61" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="C61" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+      <c r="D61" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="E61" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="F61" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="G61" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="E63" s="2" t="s">
+    </row>
+    <row r="62" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
+      <c r="C62" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="D62" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="E62" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="F62" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="G62" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+    </row>
+    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C63" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D63" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E63" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F63" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
+      <c r="G63" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B66" s="2" t="s">
+    </row>
+    <row r="64" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C64" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D64" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E64" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="F64" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+      <c r="G64" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="2" t="s">
+    </row>
+    <row r="65" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C65" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D65" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E65" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
+      <c r="F65" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="G65" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C69" s="2" t="s">
+    </row>
+    <row r="66" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="C66" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="D66" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
+      <c r="E66" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="F66" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="G66" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D70" s="2" t="s">
+    </row>
+    <row r="67" spans="1:7" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="F70" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A85" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F87" s="2" t="s">
+      <c r="F102" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F88" s="2" t="s">
+      <c r="D118" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A101" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="F118" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="256.5" x14ac:dyDescent="0.15">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="185.25" x14ac:dyDescent="0.15">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="156.75" x14ac:dyDescent="0.15">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="285" x14ac:dyDescent="0.15">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="228" x14ac:dyDescent="0.15">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="228" x14ac:dyDescent="0.15">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="F142" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A105" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A106" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A108" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A111" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F114" s="2" t="s">
+      <c r="G142" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="171" x14ac:dyDescent="0.15">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A160" s="4">
         <v>159</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A116" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A119" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A121" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A122" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A124" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A125" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A126" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A127" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A128" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A129" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A130" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A131" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A132" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A133" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A134" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A135" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A137" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A138" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A139" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A140" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A141" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A142" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A143" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A144" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A145" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A146" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A147" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A148" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A149" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A150" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A151" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A152" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A153" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A154" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A156" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A157" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A158" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A159" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A160" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A161" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A162" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A163" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A164" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A166" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A167" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A168" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A169" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A170" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A171" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="142.5" x14ac:dyDescent="0.15">
-      <c r="A173" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="114" x14ac:dyDescent="0.15">
-      <c r="A174" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="E175" s="2" t="s">
+      <c r="B160" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="F175" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A176" s="2" t="s">
+      <c r="C160" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="D160" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="E160" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="F160" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="G160" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A177" s="2" t="s">
+    </row>
+    <row r="161" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="C161" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="D161" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="E161" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="F161" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A178" s="2" t="s">
+      <c r="G161" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B178" s="2" t="s">
+    </row>
+    <row r="162" spans="1:7" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C162" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D162" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E162" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A179" s="2" t="s">
+      <c r="F162" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="G162" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="C179" s="2" t="s">
+    </row>
+    <row r="163" spans="1:7" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="C163" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="D163" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A180" s="2" t="s">
+      <c r="E163" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="F163" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="G163" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="D180" s="2" t="s">
+    </row>
+    <row r="164" spans="1:7" ht="171" x14ac:dyDescent="0.15">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="C164" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A181" s="2" t="s">
+      <c r="D164" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="E164" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="F164" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="G164" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="F181" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A182" s="2" t="s">
+    </row>
+    <row r="165" spans="1:7" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="C165" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="D165" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="E165" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="F165" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A183" s="2" t="s">
+      <c r="G165" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="B183" s="2" t="s">
+    </row>
+    <row r="166" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C166" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D166" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E166" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="F183" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A184" s="2" t="s">
+      <c r="F166" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="G166" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="C184" s="2" t="s">
+    </row>
+    <row r="167" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="C167" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="D167" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A185" s="2" t="s">
+      <c r="E167" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="F167" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="G167" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="D185" s="2" t="s">
+    </row>
+    <row r="168" spans="1:7" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="C168" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="F185" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A186" s="2" t="s">
+      <c r="D168" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="E168" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="F168" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="G168" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="C169" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="F186" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A187" s="2" t="s">
+      <c r="D169" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="E169" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="F169" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="G169" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="E187" s="2" t="s">
+    </row>
+    <row r="170" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="F187" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A188" s="2" t="s">
+      <c r="C170" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="D170" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="E170" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="F170" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="G170" s="6" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="F188" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A189" s="2" t="s">
+      <c r="C171" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="D171" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="E171" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="F171" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="G171" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="F189" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A190" s="2" t="s">
+    </row>
+    <row r="172" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="C172" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="D172" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="E172" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="F172" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="F190" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="114" x14ac:dyDescent="0.15">
-      <c r="A191" s="2" t="s">
+      <c r="G172" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="B191" s="2" t="s">
+    </row>
+    <row r="173" spans="1:7" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C173" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D173" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E173" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="F191" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A192" s="2" t="s">
+      <c r="F173" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="G173" s="6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="C174" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="D174" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="F192" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A193" s="2" t="s">
+      <c r="E174" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="F174" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="G174" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="C175" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="D175" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="F193" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A194" s="2" t="s">
+      <c r="E175" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="F175" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="G175" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="D194" s="2" t="s">
+    </row>
+    <row r="176" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="C176" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="F194" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A195" s="2" t="s">
+      <c r="D176" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="E176" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="F176" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="G176" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="E195" s="2" t="s">
+    </row>
+    <row r="177" spans="1:7" ht="156.75" x14ac:dyDescent="0.15">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="F195" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A196" s="2" t="s">
+      <c r="C177" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="D177" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="E177" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="F177" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="G177" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F196" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A197" s="2" t="s">
+    </row>
+    <row r="178" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="C178" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A198" s="2" t="s">
+      <c r="D178" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="2" t="s">
+      <c r="E178" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="F178" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="G178" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="D199" s="2" t="s">
+    </row>
+    <row r="179" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="C179" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="F199" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A200" s="2" t="s">
+      <c r="D179" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="E179" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="F179" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="G179" s="6" t="s">
         <v>897</v>
       </c>
-      <c r="E200" s="2" t="s">
+    </row>
+    <row r="180" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>898</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A201" s="2" t="s">
+      <c r="C180" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="D180" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="E180" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="F180" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="G180" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>482</v>
+    </row>
+    <row r="181" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="156.75" x14ac:dyDescent="0.15">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A188" s="4">
+        <v>187</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A190" s="4">
+        <v>189</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="199.5" x14ac:dyDescent="0.15">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A192" s="4">
+        <v>191</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A193" s="4">
+        <v>192</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="156.75" x14ac:dyDescent="0.15">
+      <c r="A194" s="4">
+        <v>193</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="185.25" x14ac:dyDescent="0.15">
+      <c r="A195" s="4">
+        <v>194</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A196" s="4">
+        <v>195</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A197" s="4">
+        <v>196</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A198" s="4">
+        <v>197</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A199" s="4">
+        <v>198</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="228" x14ac:dyDescent="0.15">
+      <c r="A200" s="4">
+        <v>199</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A201" s="4">
+        <v>200</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -7173,7 +8138,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F201" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:G201" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>